--- a/data/datasets_info.xlsx
+++ b/data/datasets_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WesleyBeckner\Documents\apps\ds_for_engineers\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesley\Documents\apps\ds_for_engineers\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A028B-A71F-436C-AB05-CD23E11D1E96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF0BCF5-6EF1-46F5-B144-FF111DB33934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2082" yWindow="1548" windowWidth="18516" windowHeight="10800" xr2:uid="{32BF48C4-166B-47F2-8398-E3B71EB10270}"/>
+    <workbookView xWindow="-24675" yWindow="2025" windowWidth="21600" windowHeight="11505" xr2:uid="{32BF48C4-166B-47F2-8398-E3B71EB10270}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>DATASET</t>
   </si>
@@ -117,18 +117,9 @@
     <t xml:space="preserve">COMPANY </t>
   </si>
   <si>
-    <t>DOW</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
     <t>CNC</t>
   </si>
   <si>
-    <t>KP Films</t>
-  </si>
-  <si>
     <t>Asset Performance</t>
   </si>
   <si>
@@ -151,12 +142,15 @@
   </si>
   <si>
     <t>Pilot Technocast</t>
+  </si>
+  <si>
+    <t>Truffle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +187,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0E085249-7511-43B0-9FFB-399EB3D858AA}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,22 +501,22 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.734375" customWidth="1"/>
-    <col min="4" max="4" width="16.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.15625" customWidth="1"/>
-    <col min="8" max="8" width="11.15625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -546,12 +542,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -572,12 +568,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -598,12 +594,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -624,12 +620,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -638,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -650,12 +646,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -673,12 +669,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
